--- a/media/pattern/buying.xlsx
+++ b/media/pattern/buying.xlsx
@@ -14,22 +14,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+  <si>
+    <t>ozon</t>
+  </si>
+  <si>
+    <t>Яндекс Дзен</t>
+  </si>
+  <si>
+    <t>Репутационный маркетинг</t>
+  </si>
+  <si>
+    <t>Блоггеры</t>
+  </si>
   <si>
     <t>Максима Телеком ( Qvant)
 wi-fi.ru</t>
   </si>
   <si>
+    <t>Mediatoday</t>
+  </si>
+  <si>
     <t>СберМаркет</t>
   </si>
   <si>
-    <t>ozon</t>
-  </si>
-  <si>
-    <t>Репутационный маркетинг</t>
-  </si>
-  <si>
-    <t>Блоггеры</t>
+    <t>PunchMedia Group</t>
+  </si>
+  <si>
+    <t>Yandex.ru</t>
+  </si>
+  <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Cats, пакет "Мультивидео"</t>
   </si>
 </sst>
 </file>
@@ -361,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>273</v>
+        <v>205.8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -386,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>450000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -397,7 +415,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>208.3333333333334</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -407,9 +425,6 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>90000</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -417,6 +432,66 @@
       </c>
       <c r="B5" t="s">
         <v>4</v>
+      </c>
+      <c r="C5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>1150000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/media/pattern/buying.xlsx
+++ b/media/pattern/buying.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
-  <si>
-    <t>ozon</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
+  <si>
+    <t>Yandex.ru</t>
   </si>
   <si>
     <t>Яндекс Дзен</t>
@@ -26,6 +26,45 @@
   </si>
   <si>
     <t>Блоггеры</t>
+  </si>
+  <si>
+    <t>gdeetotdom.ru</t>
+  </si>
+  <si>
+    <t>move.ru</t>
+  </si>
+  <si>
+    <t>jcat</t>
+  </si>
+  <si>
+    <t>mirkvartir.ru</t>
+  </si>
+  <si>
+    <t>novostroy-m.ru</t>
+  </si>
+  <si>
+    <t>vsenovostroyki.ru</t>
+  </si>
+  <si>
+    <t>pronovostroy.ru</t>
+  </si>
+  <si>
+    <t>pronovostroy.ru БОНУС</t>
+  </si>
+  <si>
+    <t>Jcat</t>
+  </si>
+  <si>
+    <t>elitnoe.ru</t>
+  </si>
+  <si>
+    <t>premium.estate</t>
+  </si>
+  <si>
+    <t>lifedeluxe.ru</t>
+  </si>
+  <si>
+    <t>lifedeluxe.ru Бонус</t>
   </si>
   <si>
     <t>Максима Телеком ( Qvant)
@@ -35,19 +74,19 @@
     <t>Mediatoday</t>
   </si>
   <si>
+    <t>Cats</t>
+  </si>
+  <si>
+    <t>Cats, пакет "Мультивидео"</t>
+  </si>
+  <si>
+    <t>ozon</t>
+  </si>
+  <si>
     <t>СберМаркет</t>
   </si>
   <si>
     <t>PunchMedia Group</t>
-  </si>
-  <si>
-    <t>Yandex.ru</t>
-  </si>
-  <si>
-    <t>Cats</t>
-  </si>
-  <si>
-    <t>Cats, пакет "Мультивидео"</t>
   </si>
 </sst>
 </file>
@@ -379,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="C1">
-        <v>205.8</v>
+        <v>1150000</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -434,7 +473,7 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>300</v>
+        <v>176000</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -445,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>630</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -456,7 +495,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>300000</v>
+        <v>50618</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -466,6 +505,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8">
+        <v>199000</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
@@ -475,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1150000</v>
+        <v>279166</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -485,6 +527,9 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
+      <c r="C10">
+        <v>166666</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
@@ -492,6 +537,140 @@
       </c>
       <c r="B11" t="s">
         <v>10</v>
+      </c>
+      <c r="C11">
+        <v>218500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>109409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>129000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>205.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/media/pattern/buying.xlsx
+++ b/media/pattern/buying.xlsx
@@ -1,110 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
-  <si>
-    <t>Yandex.ru</t>
-  </si>
-  <si>
-    <t>Яндекс Дзен</t>
-  </si>
-  <si>
-    <t>Репутационный маркетинг</t>
-  </si>
-  <si>
-    <t>Блоггеры</t>
-  </si>
-  <si>
-    <t>gdeetotdom.ru</t>
-  </si>
-  <si>
-    <t>move.ru</t>
-  </si>
-  <si>
-    <t>jcat</t>
-  </si>
-  <si>
-    <t>mirkvartir.ru</t>
-  </si>
-  <si>
-    <t>novostroy-m.ru</t>
-  </si>
-  <si>
-    <t>vsenovostroyki.ru</t>
-  </si>
-  <si>
-    <t>pronovostroy.ru</t>
-  </si>
-  <si>
-    <t>pronovostroy.ru БОНУС</t>
-  </si>
-  <si>
-    <t>Jcat</t>
-  </si>
-  <si>
-    <t>elitnoe.ru</t>
-  </si>
-  <si>
-    <t>premium.estate</t>
-  </si>
-  <si>
-    <t>lifedeluxe.ru</t>
-  </si>
-  <si>
-    <t>lifedeluxe.ru Бонус</t>
-  </si>
-  <si>
-    <t>Максима Телеком ( Qvant)
-wi-fi.ru</t>
-  </si>
-  <si>
-    <t>Mediatoday</t>
-  </si>
-  <si>
-    <t>Cats</t>
-  </si>
-  <si>
-    <t>Cats, пакет "Мультивидео"</t>
-  </si>
-  <si>
-    <t>ozon</t>
-  </si>
-  <si>
-    <t>СберМаркет</t>
-  </si>
-  <si>
-    <t>PunchMedia Group</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -123,13 +47,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -417,263 +408,502 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>YouTube+GDN</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>YouTube+GDN</t>
+        </is>
+      </c>
+      <c r="C1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>YouTube+GDN</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>YouTube+GDN</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2614.451</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>YouTube</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>913195</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Segmento</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Segmento</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="C1">
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Soloway</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Soloway</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>600.048</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Yandex.ru</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Yandex.ru</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>1150000</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPMD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GPMD</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPMD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GPMD</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Smart TV
+GPMD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Smart TV
+GPMD</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Smart TV
+GPMD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Smart TV
+GPMD</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Smart TV
+ИМХО</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Smart TV
+ИМХО</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>845000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Яндекс Дзен</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Яндекс Дзен</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Яндекс Дзен</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Яндекс Дзен</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>250000</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Репутационный маркетинг</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Репутационный маркетинг</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>90000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>50618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>199000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>279166</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>166666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>218500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>109409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>185000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15">
-        <v>250000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16">
-        <v>129000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Блоггеры</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Блоггеры</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Facebook / Instagram</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facebook / Instagram</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>341.36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Вконтакте</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Вконтакте</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MyTarget</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MyTarget</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ОТМ Network</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ОТМ Network</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>500.15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Native Roll</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Native Roll</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)
+wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Максима Телеком ( Qvant)
+wi-fi.ru</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ВидеоСеть ИМХО</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ВидеоСеть ИМХО</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>847.5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Mediatoday</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mediatoday</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>630</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Cats</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cats</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cats, пакет "Мультивидео"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cats, пакет "Мультивидео"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ozon</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ozon</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>205.8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>СберМаркет</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>СберМаркет</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>300000</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo 
+Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo 
+Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo 
+Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Пакет XL Flex Rambler&amp;Сo 
+Desktop+Mobile Reach Video PMP</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>PunchMedia Group</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PunchMedia Group</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>PunchMedia Group</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PunchMedia Group</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>